--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -19,7 +19,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name_res</t>
   </si>
   <si>
     <t>remark</t>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>类型0音乐 1音效 2环境音</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>ThumAge</t>
+    <t>audio_sound_btn1</t>
+  </si>
+  <si>
+    <t>按钮1</t>
+  </si>
+  <si>
+    <t>audio_sound_btn2</t>
+  </si>
+  <si>
+    <t>按钮2</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1077,7 +1083,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1086,7 +1092,21 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>100002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18390" windowHeight="9240"/>
+    <workbookView windowWidth="23235" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="10545"/>
+    <workbookView windowWidth="18390" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>类型0音乐 1音效 2环境音</t>
+    <t>类型0音效 1音乐 2环境音</t>
   </si>
   <si>
     <t>audio_sound_btn1</t>
@@ -55,7 +55,7 @@
     <t>按钮1</t>
   </si>
   <si>
-    <t>audio_sound_btn2</t>
+    <t>audio_sound_btn3</t>
   </si>
   <si>
     <t>按钮2</t>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1092,12 +1092,12 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18390" windowHeight="9240"/>
+    <workbookView windowWidth="23235" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -49,16 +49,28 @@
     <t>类型0音效 1音乐 2环境音</t>
   </si>
   <si>
-    <t>audio_sound_btn1</t>
+    <t>audio_sound_btn1.wav</t>
   </si>
   <si>
     <t>按钮1</t>
   </si>
   <si>
+    <t>audio_sound_btn2.wav</t>
+  </si>
+  <si>
+    <t>按钮2</t>
+  </si>
+  <si>
     <t>audio_sound_btn3</t>
   </si>
   <si>
-    <t>按钮2</t>
+    <t>按钮3</t>
+  </si>
+  <si>
+    <t>audio_sound_btn4</t>
+  </si>
+  <si>
+    <t>按钮4</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1041,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1106,6 +1118,34 @@
         <v>14</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="10545"/>
+    <workbookView windowWidth="23955" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -61,16 +61,43 @@
     <t>按钮2</t>
   </si>
   <si>
-    <t>audio_sound_btn3</t>
+    <t>audio_sound_btn3.wav</t>
   </si>
   <si>
     <t>按钮3</t>
   </si>
   <si>
-    <t>audio_sound_btn4</t>
+    <t>audio_sound_btn4.wav</t>
   </si>
   <si>
     <t>按钮4</t>
+  </si>
+  <si>
+    <t>audio_sound_btn5.wav</t>
+  </si>
+  <si>
+    <t>按钮5</t>
+  </si>
+  <si>
+    <t>audio_sound_eat_1.wav</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>audio_sound_synthesis_1.wav</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_1.wav</t>
+  </si>
+  <si>
+    <t>挖掘</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_2.wav</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1149,7 +1176,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
     <row r="53" ht="12" customHeight="1"/>
     <row r="54" ht="12" customHeight="1"/>
     <row r="55" ht="12" customHeight="1"/>
@@ -1158,6 +1254,7 @@
     <row r="58" ht="12" customHeight="1"/>
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
+    <row r="61" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,24 @@
   </si>
   <si>
     <t>audio_sound_dig_2.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_3.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_51.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_52.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_53.wav</t>
+  </si>
+  <si>
+    <t>auido_sound_get_1.wav</t>
+  </si>
+  <si>
+    <t>获取</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1246,6 +1264,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>351</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>353</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>401</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="12" customHeight="1"/>
     <row r="53" ht="12" customHeight="1"/>
     <row r="54" ht="12" customHeight="1"/>
     <row r="55" ht="12" customHeight="1"/>
@@ -1254,7 +1343,6 @@
     <row r="58" ht="12" customHeight="1"/>
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
-    <row r="61" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="12300"/>
+    <workbookView windowWidth="23955" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>获取</t>
+  </si>
+  <si>
+    <t>audio_sound_fall_1.wav</t>
+  </si>
+  <si>
+    <t>坠落</t>
+  </si>
+  <si>
+    <t>audio_sound_fall_2.wav</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1331,6 +1340,34 @@
         <v>33</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>501</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>502</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="11700"/>
+    <workbookView windowWidth="23955" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>audio_sound_fall_2.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dead_1.wav</t>
+  </si>
+  <si>
+    <t>死亡</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1368,6 +1374,20 @@
         <v>35</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="12300"/>
+    <workbookView windowWidth="15735" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>audio_sound_fall_2.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_set_1.wav</t>
+  </si>
+  <si>
+    <t>放置</t>
   </si>
   <si>
     <t>audio_sound_dead_1.wav</t>
@@ -1098,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1379,7 +1385,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1001</v>
+        <v>601</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -1391,7 +1397,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
     <row r="53" ht="12" customHeight="1"/>
     <row r="54" ht="12" customHeight="1"/>
     <row r="55" ht="12" customHeight="1"/>
@@ -1400,6 +1419,7 @@
     <row r="58" ht="12" customHeight="1"/>
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
+    <row r="61" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10470"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>audio_sound_dig_53.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_54.wav</t>
   </si>
   <si>
     <t>auido_sound_get_1.wav</t>
@@ -1104,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1343,13 +1346,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1357,13 +1360,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1371,13 +1374,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1385,13 +1388,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1399,19 +1402,32 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
+        <v>601</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>1001</v>
       </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="12" customHeight="1"/>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
     <row r="54" ht="12" customHeight="1"/>
     <row r="55" ht="12" customHeight="1"/>
     <row r="56" ht="12" customHeight="1"/>
@@ -1420,6 +1436,7 @@
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
     <row r="61" ht="12" customHeight="1"/>
+    <row r="62" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="19305" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,34 @@
     <t>audio_sound_fall_2.wav</t>
   </si>
   <si>
+    <t>audio_sound_fall_3.wav</t>
+  </si>
+  <si>
+    <t>物品掉落</t>
+  </si>
+  <si>
+    <t>audio_sound_set_2.wav</t>
+  </si>
+  <si>
+    <t>放置（种植）</t>
+  </si>
+  <si>
     <t>audio_sound_set_1.wav</t>
   </si>
   <si>
     <t>放置</t>
+  </si>
+  <si>
+    <t>audio_sound_water_1.wav</t>
+  </si>
+  <si>
+    <t>入水</t>
+  </si>
+  <si>
+    <t>audio_sound_water_2.wav</t>
+  </si>
+  <si>
+    <t>浇水</t>
   </si>
   <si>
     <t>audio_sound_dead_1.wav</t>
@@ -1107,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1402,7 +1426,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>601</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -1414,9 +1438,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="15" customHeight="1" spans="1:4">
       <c r="A22">
-        <v>1001</v>
+        <v>602</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -1428,15 +1452,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="12" customHeight="1"/>
-    <row r="55" ht="12" customHeight="1"/>
-    <row r="56" ht="12" customHeight="1"/>
-    <row r="57" ht="12" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1" spans="1:4">
+      <c r="A23">
+        <v>601</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:4">
+      <c r="A24">
+        <v>701</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:4">
+      <c r="A25">
+        <v>702</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
     <row r="58" ht="12" customHeight="1"/>
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
     <row r="61" ht="12" customHeight="1"/>
     <row r="62" ht="12" customHeight="1"/>
+    <row r="63" ht="12" customHeight="1"/>
+    <row r="64" ht="12" customHeight="1"/>
+    <row r="65" ht="12" customHeight="1"/>
+    <row r="66" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="17670"/>
+    <workbookView windowWidth="19785" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>浇水</t>
+  </si>
+  <si>
+    <t>audio_sound_book_1.wav</t>
+  </si>
+  <si>
+    <t>翻书</t>
+  </si>
+  <si>
+    <t>audio_sound_book_2.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_reward_1.wav</t>
+  </si>
+  <si>
+    <t>奖励</t>
   </si>
   <si>
     <t>audio_sound_dead_1.wav</t>
@@ -1131,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1494,9 +1509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="15" customHeight="1" spans="1:4">
       <c r="A26">
-        <v>1001</v>
+        <v>801</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
@@ -1508,15 +1523,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="12" customHeight="1"/>
-    <row r="59" ht="12" customHeight="1"/>
-    <row r="60" ht="12" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1" spans="1:4">
+      <c r="A27">
+        <v>802</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:4">
+      <c r="A28">
+        <v>901</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
     <row r="61" ht="12" customHeight="1"/>
     <row r="62" ht="12" customHeight="1"/>
     <row r="63" ht="12" customHeight="1"/>
     <row r="64" ht="12" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="12" customHeight="1"/>
+    <row r="67" ht="12" customHeight="1"/>
+    <row r="68" ht="12" customHeight="1"/>
+    <row r="69" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="17070"/>
+    <workbookView windowWidth="20610" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="7380"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>死亡</t>
+  </si>
+  <si>
+    <t>audio_sound_show_1.wav</t>
+  </si>
+  <si>
+    <t>展示</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1155,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1562,6 +1568,20 @@
         <v>54</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="21105" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,21 @@
     <t>浇水</t>
   </si>
   <si>
+    <t>audio_sound_water_3.wav</t>
+  </si>
+  <si>
+    <t>水声</t>
+  </si>
+  <si>
+    <t>audio_sound_water_4.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_water_5.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_water_6.wav</t>
+  </si>
+  <si>
     <t>audio_sound_book_1.wav</t>
   </si>
   <si>
@@ -185,6 +200,12 @@
   </si>
   <si>
     <t>展示</t>
+  </si>
+  <si>
+    <t>audio_sound_show_2.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_show_3.wav</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1517,7 +1538,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:4">
       <c r="A26">
-        <v>801</v>
+        <v>703</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
@@ -1531,7 +1552,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:4">
       <c r="A27">
-        <v>802</v>
+        <v>704</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -1545,55 +1566,139 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:4">
       <c r="A28">
-        <v>901</v>
+        <v>705</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:4">
+      <c r="A29">
+        <v>706</v>
+      </c>
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:4">
+      <c r="A30">
+        <v>801</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:4">
+      <c r="A31">
+        <v>802</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:4">
+      <c r="A32">
+        <v>901</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>1001</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>1101</v>
       </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="12" customHeight="1"/>
-    <row r="62" ht="12" customHeight="1"/>
-    <row r="63" ht="12" customHeight="1"/>
-    <row r="64" ht="12" customHeight="1"/>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="12" customHeight="1"/>
     <row r="67" ht="12" customHeight="1"/>
     <row r="68" ht="12" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
+    <row r="70" ht="12" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
+    <row r="72" ht="12" customHeight="1"/>
+    <row r="73" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="11385"/>
+    <workbookView windowWidth="28530" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -79,10 +79,28 @@
     <t>按钮5</t>
   </si>
   <si>
+    <t>audio_sound_launch_1.wav</t>
+  </si>
+  <si>
+    <t>发射弓箭</t>
+  </si>
+  <si>
+    <t>audio_sound_launch_2.wav</t>
+  </si>
+  <si>
+    <t>发射火焰弹</t>
+  </si>
+  <si>
     <t>audio_sound_eat_1.wav</t>
   </si>
   <si>
     <t>吃</t>
+  </si>
+  <si>
+    <t>audio_sound_boom_1.wav</t>
+  </si>
+  <si>
+    <t>爆炸</t>
   </si>
   <si>
     <t>audio_sound_synthesis_1.wav</t>
@@ -1173,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1300,7 +1318,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1314,7 +1332,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1328,7 +1346,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1342,13 +1360,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1356,13 +1374,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1370,13 +1388,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1384,13 +1402,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1398,13 +1416,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1412,13 +1430,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1426,13 +1444,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1440,13 +1458,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1454,13 +1472,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1468,49 +1486,49 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
+        <v>401</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>501</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>502</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>503</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:4">
-      <c r="A22">
-        <v>602</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:4">
-      <c r="A23">
-        <v>601</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:4">
-      <c r="A24">
-        <v>701</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
@@ -1524,7 +1542,7 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:4">
       <c r="A25">
-        <v>702</v>
+        <v>602</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -1538,7 +1556,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:4">
       <c r="A26">
-        <v>703</v>
+        <v>601</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
@@ -1552,13 +1570,13 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:4">
       <c r="A27">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1566,13 +1584,13 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:4">
       <c r="A28">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1580,13 +1598,13 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:4">
       <c r="A29">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1594,13 +1612,13 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:4">
       <c r="A30">
-        <v>801</v>
+        <v>704</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1608,13 +1626,13 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:4">
       <c r="A31">
-        <v>802</v>
+        <v>705</v>
       </c>
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1622,55 +1640,55 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:4">
       <c r="A32">
+        <v>706</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:4">
+      <c r="A33">
+        <v>801</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:4">
+      <c r="A34">
+        <v>802</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:4">
+      <c r="A35">
         <v>901</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>1001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>1101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>1102</v>
       </c>
       <c r="B35" t="s">
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1678,27 +1696,69 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
+        <v>1001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>1103</v>
       </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
     <row r="68" ht="12" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
     <row r="71" ht="12" customHeight="1"/>
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
+    <row r="74" ht="12" customHeight="1"/>
+    <row r="75" ht="12" customHeight="1"/>
+    <row r="76" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="11145"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -49,16 +49,13 @@
     <t>类型0音效 1音乐 2环境音</t>
   </si>
   <si>
-    <t>audio_sound_btn1.wav</t>
-  </si>
-  <si>
-    <t>按钮1</t>
-  </si>
-  <si>
-    <t>audio_sound_btn2.wav</t>
-  </si>
-  <si>
-    <t>按钮2</t>
+    <t>audio_sound_btn6.wav</t>
+  </si>
+  <si>
+    <t>按钮1（点击）</t>
+  </si>
+  <si>
+    <t>按钮2（返回）</t>
   </si>
   <si>
     <t>audio_sound_btn3.wav</t>
@@ -1194,7 +1191,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1265,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1279,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1293,10 +1290,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1307,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1321,10 +1318,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1335,10 +1332,10 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1349,10 +1346,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1363,10 +1360,10 @@
         <v>151</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1377,10 +1374,10 @@
         <v>201</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1391,10 +1388,10 @@
         <v>301</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1405,10 +1402,10 @@
         <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1419,10 +1416,10 @@
         <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1433,10 +1430,10 @@
         <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1447,10 +1444,10 @@
         <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1461,10 +1458,10 @@
         <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1475,10 +1472,10 @@
         <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1489,10 +1486,10 @@
         <v>401</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1503,10 +1500,10 @@
         <v>501</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1517,10 +1514,10 @@
         <v>502</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1531,10 +1528,10 @@
         <v>503</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1545,10 +1542,10 @@
         <v>602</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1559,10 +1556,10 @@
         <v>601</v>
       </c>
       <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1573,10 +1570,10 @@
         <v>701</v>
       </c>
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1587,10 +1584,10 @@
         <v>702</v>
       </c>
       <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1601,10 +1598,10 @@
         <v>703</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1615,10 +1612,10 @@
         <v>704</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1629,10 +1626,10 @@
         <v>705</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1643,10 +1640,10 @@
         <v>706</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1657,10 +1654,10 @@
         <v>801</v>
       </c>
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1671,10 +1668,10 @@
         <v>802</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1685,10 +1682,10 @@
         <v>901</v>
       </c>
       <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1699,10 +1696,10 @@
         <v>1001</v>
       </c>
       <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1713,10 +1710,10 @@
         <v>1101</v>
       </c>
       <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1727,10 +1724,10 @@
         <v>1102</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1741,10 +1738,10 @@
         <v>1103</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>0</v>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="21015" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>audio_sound_dig_3.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_4.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_5.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_6.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_7.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_8.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_dig_9.wav</t>
   </si>
   <si>
     <t>audio_sound_dig_51.wav</t>
@@ -1188,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1427,7 +1445,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1441,7 +1459,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1455,7 +1473,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1469,7 +1487,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -1483,13 +1501,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1497,13 +1515,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>501</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1511,13 +1529,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>502</v>
+        <v>351</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1525,97 +1543,97 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
+        <v>352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>353</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>354</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>401</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>501</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>502</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>503</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:4">
-      <c r="A25">
-        <v>602</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:4">
-      <c r="A26">
-        <v>601</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:4">
-      <c r="A27">
-        <v>701</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>50</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:4">
-      <c r="A28">
-        <v>702</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:4">
-      <c r="A29">
-        <v>703</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:4">
-      <c r="A30">
-        <v>704</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1623,13 +1641,13 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:4">
       <c r="A31">
-        <v>705</v>
+        <v>602</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1637,10 +1655,10 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:4">
       <c r="A32">
-        <v>706</v>
+        <v>601</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -1651,13 +1669,13 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:4">
       <c r="A33">
-        <v>801</v>
+        <v>701</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1665,13 +1683,13 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:4">
       <c r="A34">
-        <v>802</v>
+        <v>702</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1679,83 +1697,167 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:4">
       <c r="A35">
+        <v>703</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:4">
+      <c r="A36">
+        <v>704</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:4">
+      <c r="A37">
+        <v>705</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:4">
+      <c r="A38">
+        <v>706</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:4">
+      <c r="A39">
+        <v>801</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:4">
+      <c r="A40">
+        <v>802</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:4">
+      <c r="A41">
         <v>901</v>
       </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>1001</v>
       </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
         <v>1101</v>
       </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>1102</v>
       </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
         <v>1103</v>
       </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
     <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
+    <row r="77" ht="12" customHeight="1"/>
+    <row r="78" ht="12" customHeight="1"/>
+    <row r="79" ht="12" customHeight="1"/>
+    <row r="80" ht="12" customHeight="1"/>
+    <row r="81" ht="12" customHeight="1"/>
+    <row r="82" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,9 @@
     <t>audio_sound_dig_9.wav</t>
   </si>
   <si>
+    <t>audio_sound_dig_10.wav</t>
+  </si>
+  <si>
     <t>audio_sound_dig_51.wav</t>
   </si>
   <si>
@@ -239,6 +242,42 @@
   </si>
   <si>
     <t>audio_sound_show_3.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_1.wav</t>
+  </si>
+  <si>
+    <t>走路</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_2.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_3.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_4.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_5.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_6.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_7.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_8.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_9.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_10.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_walk_11.wav</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1529,7 +1568,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -1543,7 +1582,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1557,7 +1596,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -1571,7 +1610,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1585,13 +1624,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1599,13 +1638,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
         <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1613,13 +1652,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1627,27 +1666,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>503</v>
+      </c>
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:4">
-      <c r="A31">
-        <v>602</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1655,13 +1694,13 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:4">
       <c r="A32">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1669,13 +1708,13 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:4">
       <c r="A33">
-        <v>701</v>
+        <v>601</v>
       </c>
       <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1683,13 +1722,13 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:4">
       <c r="A34">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1697,13 +1736,13 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:4">
       <c r="A35">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1711,13 +1750,13 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:4">
       <c r="A36">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1725,13 +1764,13 @@
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:4">
       <c r="A37">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1739,13 +1778,13 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:4">
       <c r="A38">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1753,13 +1792,13 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:4">
       <c r="A39">
-        <v>801</v>
+        <v>706</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1767,13 +1806,13 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:4">
       <c r="A40">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
         <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1781,27 +1820,27 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:4">
       <c r="A41">
-        <v>901</v>
+        <v>802</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
       </c>
       <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:4">
+      <c r="A42">
+        <v>901</v>
+      </c>
+      <c r="B42" t="s">
         <v>68</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>1001</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1809,13 +1848,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
         <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1823,13 +1862,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1837,19 +1876,186 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B45" t="s">
         <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="12" customHeight="1"/>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>1206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>1210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>1211</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
@@ -1858,6 +2064,7 @@
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>audio_sound_walk_11.wav</t>
+  </si>
+  <si>
+    <t>audio_sound_chest_1.wav</t>
+  </si>
+  <si>
+    <t>箱子打开</t>
+  </si>
+  <si>
+    <t>audio_sound_chest_2.wav</t>
+  </si>
+  <si>
+    <t>箱子关闭</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2053,6 +2065,34 @@
         <v>77</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1301</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1302</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="11400"/>
+    <workbookView windowWidth="21255" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>audio_sound_walk_10.wav</t>
-  </si>
-  <si>
-    <t>audio_sound_walk_11.wav</t>
   </si>
   <si>
     <t>audio_sound_chest_1.wav</t>
@@ -1257,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2056,13 +2053,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>1211</v>
+        <v>1301</v>
       </c>
       <c r="B57" t="s">
         <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2070,32 +2067,19 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>1302</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
@@ -2104,7 +2088,6 @@
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>
